--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/ALABAMA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/ALABAMA_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D831"/>
+  <dimension ref="A1:D825"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C4">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C23">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C31">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C33">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C49">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C56">
@@ -1587,7 +1587,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C92">
@@ -1696,7 +1696,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1753,7 +1753,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C104">
@@ -2077,18 +2077,18 @@
         <v>34</v>
       </c>
       <c r="D128">
-        <v>0.009534492428491307</v>
+        <v>0.009534492428491309</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C129">
@@ -2127,7 +2127,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C132">
@@ -2140,7 +2140,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C133">
@@ -2153,7 +2153,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C134">
@@ -2218,7 +2218,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C139">
@@ -2283,7 +2283,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C144">
@@ -2335,7 +2335,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C148">
@@ -2387,7 +2387,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C152">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C160">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C164">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C171">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C175">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C179">
@@ -2823,13 +2823,13 @@
         <v>354</v>
       </c>
       <c r="D185">
-        <v>0.09927089175546831</v>
+        <v>0.09927089175546833</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2873,7 +2873,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C189">
@@ -2886,7 +2886,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C190">
@@ -2977,7 +2977,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C197">
@@ -3120,7 +3120,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C208">
@@ -3146,7 +3146,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C210">
@@ -3172,7 +3172,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C212">
@@ -3185,7 +3185,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C213">
@@ -3198,7 +3198,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C214">
@@ -3250,7 +3250,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C218">
@@ -3312,7 +3312,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C222">
@@ -3338,7 +3338,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C224">
@@ -3351,7 +3351,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerero</t>
+          <t>Alcozauca De Guerero</t>
         </is>
       </c>
       <c r="C225">
@@ -3390,7 +3390,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C228">
@@ -3403,7 +3403,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C229">
@@ -3442,7 +3442,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C232">
@@ -3455,7 +3455,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C233">
@@ -3468,7 +3468,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C234">
@@ -3507,7 +3507,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C237">
@@ -3520,7 +3520,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C238">
@@ -3559,7 +3559,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C241">
@@ -3611,7 +3611,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C245">
@@ -3624,7 +3624,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C246">
@@ -3650,7 +3650,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C248">
@@ -3663,7 +3663,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C249">
@@ -3819,7 +3819,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C261">
@@ -3845,7 +3845,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C263">
@@ -3865,13 +3865,13 @@
         <v>33</v>
       </c>
       <c r="D264">
-        <v>0.009254066180594503</v>
+        <v>0.009254066180594505</v>
       </c>
     </row>
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C265">
@@ -3923,7 +3923,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C269">
@@ -4019,7 +4019,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C276">
@@ -4084,7 +4084,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C281">
@@ -4097,7 +4097,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C282">
@@ -4162,7 +4162,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C287">
@@ -4188,7 +4188,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C289">
@@ -4214,7 +4214,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C291">
@@ -4253,7 +4253,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C294">
@@ -4292,7 +4292,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C297">
@@ -4318,7 +4318,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C299">
@@ -4331,7 +4331,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C300">
@@ -4370,7 +4370,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C303">
@@ -4461,7 +4461,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C310">
@@ -4474,7 +4474,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C311">
@@ -4539,7 +4539,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C316">
@@ -4552,7 +4552,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C317">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C320">
@@ -4609,7 +4609,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C321">
@@ -4635,7 +4635,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C323">
@@ -4661,7 +4661,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C325">
@@ -4765,7 +4765,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C333">
@@ -4791,7 +4791,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C335">
@@ -4856,7 +4856,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C340">
@@ -4882,7 +4882,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C342">
@@ -4895,7 +4895,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C343">
@@ -4908,7 +4908,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C344">
@@ -4934,7 +4934,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C346">
@@ -4947,7 +4947,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C347">
@@ -4999,7 +4999,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C351">
@@ -5012,7 +5012,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C352">
@@ -5025,7 +5025,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C353">
@@ -5038,7 +5038,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C354">
@@ -5064,7 +5064,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C356">
@@ -5077,7 +5077,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C357">
@@ -5264,7 +5264,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C371">
@@ -5290,7 +5290,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C373">
@@ -5349,7 +5349,7 @@
         <v>35</v>
       </c>
       <c r="D377">
-        <v>0.009814918676388109</v>
+        <v>0.009814918676388108</v>
       </c>
     </row>
     <row r="378">
@@ -5745,7 +5745,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C408">
@@ -6036,7 +6036,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C430">
@@ -6075,7 +6075,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C433">
@@ -6127,7 +6127,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C437">
@@ -6184,7 +6184,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C441">
@@ -6319,7 +6319,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C451">
@@ -6358,7 +6358,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C454">
@@ -6428,7 +6428,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C459">
@@ -6506,7 +6506,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C465">
@@ -6545,7 +6545,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C468">
@@ -6584,7 +6584,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C471">
@@ -6610,7 +6610,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C473">
@@ -6623,7 +6623,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C474">
@@ -6636,7 +6636,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C475">
@@ -6649,7 +6649,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C476">
@@ -6688,7 +6688,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C479">
@@ -6714,7 +6714,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C481">
@@ -6727,7 +6727,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C482">
@@ -6740,7 +6740,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C483">
@@ -6753,7 +6753,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerero</t>
+          <t>Putla Villa De Guerero</t>
         </is>
       </c>
       <c r="C484">
@@ -6844,7 +6844,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C491">
@@ -6870,7 +6870,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C493">
@@ -6935,7 +6935,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C498">
@@ -7468,7 +7468,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C539">
@@ -7533,7 +7533,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C544">
@@ -7546,7 +7546,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C545">
@@ -7559,7 +7559,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C546">
@@ -7572,7 +7572,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C547">
@@ -7592,7 +7592,7 @@
         <v>325</v>
       </c>
       <c r="D548">
-        <v>0.09113853056646103</v>
+        <v>0.09113853056646104</v>
       </c>
     </row>
     <row r="549">
@@ -7720,7 +7720,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C558">
@@ -7746,7 +7746,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C560">
@@ -7759,7 +7759,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C561">
@@ -7837,7 +7837,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C567">
@@ -7902,7 +7902,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C572">
@@ -7941,7 +7941,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C575">
@@ -8128,7 +8128,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C589">
@@ -8180,7 +8180,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C593">
@@ -8193,7 +8193,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C594">
@@ -8219,7 +8219,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C596">
@@ -8245,7 +8245,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C598">
@@ -8398,7 +8398,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C609">
@@ -8554,7 +8554,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C621">
@@ -8619,7 +8619,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C626">
@@ -8632,7 +8632,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C627">
@@ -8684,7 +8684,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C631">
@@ -9367,7 +9367,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C682">
@@ -9450,7 +9450,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Amaxac de Guerero</t>
+          <t>Amaxac De Guerero</t>
         </is>
       </c>
       <c r="C688">
@@ -9489,7 +9489,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C691">
@@ -9502,7 +9502,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C692">
@@ -9515,7 +9515,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C693">
@@ -9585,7 +9585,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C698">
@@ -9624,7 +9624,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C701">
@@ -9741,7 +9741,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C710">
@@ -9767,7 +9767,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C712">
@@ -9910,7 +9910,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C723">
@@ -10027,7 +10027,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C732">
@@ -10053,7 +10053,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C734">
@@ -10235,7 +10235,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C748">
@@ -10248,7 +10248,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C749">
@@ -10287,7 +10287,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C752">
@@ -10391,7 +10391,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C760">
@@ -10404,7 +10404,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C761">
@@ -10430,7 +10430,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C763">
@@ -10495,7 +10495,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C768">
@@ -10508,7 +10508,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C769">
@@ -10820,7 +10820,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C793">
@@ -10892,7 +10892,7 @@
         <v>33</v>
       </c>
       <c r="D798">
-        <v>0.009254066180594503</v>
+        <v>0.009254066180594505</v>
       </c>
     </row>
     <row r="799">
@@ -11012,7 +11012,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C807">
@@ -11254,41 +11254,6 @@
       </c>
       <c r="D825">
         <v>1</v>
-      </c>
-    </row>
-    <row r="827">
-      <c r="B827" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="828">
-      <c r="B828" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="829">
-      <c r="B829" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="830">
-      <c r="B830" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="831">
-      <c r="B831" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/ALABAMA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/ALABAMA_2020.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Pabellón De Arteaga</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Rincón De Romos</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Tecate</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Campeche</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Carmen</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Champotón</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Escárcega</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Hecelchakán</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Hopelchén</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Amatán</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Amatenango De La Frontera</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Angel Albino Corzo</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Bochil</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Chenalhó</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Chiapa De Corzo</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Chicomuselo</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Copainalá</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Francisco León</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Frontera Hidalgo</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Huixtán</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -925,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Ixhuatán</t>
@@ -938,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Ixtacomitán</t>
@@ -951,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -964,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -977,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -990,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -1003,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -1016,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -1029,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Mitontic</t>
@@ -1042,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -1055,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -1068,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Ostuacán</t>
@@ -1081,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -1094,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -1107,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -1120,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>San Fernando</t>
@@ -1133,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>San Juan Cancuc</t>
@@ -1146,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -1159,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Socoltenango</t>
@@ -1172,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Solosuchiapa</t>
@@ -1185,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -1198,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -1211,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Tapilula</t>
@@ -1224,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -1237,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Tenejapa</t>
@@ -1250,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -1263,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -1276,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1307,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Aquiles Serdán</t>
@@ -1320,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Bocoyna</t>
@@ -1333,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Casas Grandes</t>
@@ -1346,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -1359,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1372,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -1385,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Ignacio Zaragoza</t>
@@ -1398,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -1411,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -1424,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Ojinaga</t>
@@ -1437,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Rosales</t>
@@ -1450,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Urique</t>
@@ -1463,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1494,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -1507,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Monclova</t>
@@ -1520,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Múzquiz</t>
@@ -1533,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1546,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -1559,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Sabinas</t>
@@ -1572,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>San Buenaventura</t>
@@ -1585,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>San Juan De Sabinas</t>
@@ -1598,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -1611,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -1624,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Viesca</t>
@@ -1637,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1668,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Tecomán</t>
@@ -1681,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1712,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -1725,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1738,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1751,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -1764,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1777,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1790,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1803,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1816,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -1829,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1842,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Milpa Alta</t>
@@ -1855,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1868,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1881,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1912,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Cuencamé</t>
@@ -1925,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1938,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -1951,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>General Simón Bolívar</t>
@@ -1964,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -1977,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Indé</t>
@@ -1990,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Mapimí</t>
@@ -2003,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Nazas</t>
@@ -2016,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Nuevo Ideal</t>
@@ -2029,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Poanas</t>
@@ -2042,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Santa Clara</t>
@@ -2055,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Santiago Papasquiaro</t>
@@ -2068,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2099,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Acolman</t>
@@ -2112,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Aculco</t>
@@ -2125,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Almoloya De Alquisiras</t>
@@ -2138,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Almoloya De Juárez</t>
@@ -2151,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Almoloya Del Río</t>
@@ -2164,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Amanalco</t>
@@ -2177,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -2190,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Apaxco</t>
@@ -2203,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Atizapán</t>
@@ -2216,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Atizapán De Zaragoza</t>
@@ -2229,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Atlacomulco</t>
@@ -2242,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Atlautla</t>
@@ -2255,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -2268,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -2281,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Coacalco De Berriozábal</t>
@@ -2294,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Cuautitlán</t>
@@ -2307,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Cuautitlán Izcalli</t>
@@ -2320,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Donato Guerra</t>
@@ -2333,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -2346,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -2359,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Hueypoxtla</t>
@@ -2372,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Ixtapaluca</t>
@@ -2385,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -2398,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -2411,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Jiquipilco</t>
@@ -2424,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Jocotitlán</t>
@@ -2437,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -2450,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Malinalco</t>
@@ -2463,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Melchor Ocampo</t>
@@ -2476,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -2489,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -2502,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -2515,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Ocuilan</t>
@@ -2528,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Otzoloapan</t>
@@ -2541,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -2554,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Santo Tomás</t>
@@ -2567,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -2580,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -2593,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -2606,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -2619,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -2632,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Tenango Del Valle</t>
@@ -2645,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Tequixquiac</t>
@@ -2658,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Tianguistenco</t>
@@ -2671,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Timilpan</t>
@@ -2684,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -2697,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -2710,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -2723,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Tultitlán</t>
@@ -2736,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Valle De Chalco Solidaridad</t>
@@ -2749,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Villa Guerero</t>
@@ -2762,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -2775,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -2788,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Zumpahuacán</t>
@@ -2801,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Zumpango</t>
@@ -2814,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2845,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Acámbaro</t>
@@ -2858,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Allende</t>
@@ -2871,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -2884,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Apaseo El Grande</t>
@@ -2897,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Atarjea</t>
@@ -2910,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -2923,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Comonfort</t>
@@ -2936,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Coroneo</t>
@@ -2949,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -2962,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Doctor Mora</t>
@@ -2975,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -2988,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Huanímaro</t>
@@ -3001,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -3014,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -3027,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>León</t>
@@ -3040,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -3053,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -3066,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -3079,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -3092,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -3105,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -3118,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>San Diego De La Unión</t>
@@ -3131,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -3144,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>San Francisco Del Rincón</t>
@@ -3157,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -3170,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -3183,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -3196,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -3209,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -3222,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -3235,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -3248,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -3261,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -3274,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -3323,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -3336,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -3349,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Alcozauca De Guerero</t>
@@ -3362,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -3375,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -3388,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -3401,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -3414,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -3427,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -3440,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -3453,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -3466,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Coahuayutla De José María Izazaga</t>
@@ -3479,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Copala</t>
@@ -3492,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -3505,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -3518,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -3531,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -3544,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Cuautepec</t>
@@ -3557,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzón</t>
@@ -3570,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -3583,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -3596,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>General Heliodoro Castillo</t>
@@ -3609,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -3622,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -3635,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Igualapa</t>
@@ -3648,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Ixcateopan De Cuauhtémoc</t>
@@ -3661,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -3674,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -3687,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -3700,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Metlatónoc</t>
@@ -3713,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Mochitlán</t>
@@ -3726,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -3739,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -3752,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -3765,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -3778,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -3791,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -3804,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -3817,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -3830,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -3843,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -3856,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -3869,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Tepecoacuilco De Trujano</t>
@@ -3882,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Tlacoachistlahuaca</t>
@@ -3895,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Tlacoapa</t>
@@ -3908,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Tlalchapa</t>
@@ -3921,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -3934,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -3947,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Xalpatláhuac</t>
@@ -3960,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -3973,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4004,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -4017,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Agua Blanca De Iturbide</t>
@@ -4030,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Ajacuba</t>
@@ -4043,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Alfajayucan</t>
@@ -4056,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Apan</t>
@@ -4069,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Atlapexco</t>
@@ -4082,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Atotonilco De Tula</t>
@@ -4095,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Atotonilco El Grande</t>
@@ -4108,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Cardonal</t>
@@ -4121,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -4134,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Chapulhuacán</t>
@@ -4147,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Chilcuautla</t>
@@ -4160,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Cuautepec De Hinojosa</t>
@@ -4173,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -4186,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Huasca De Ocampo</t>
@@ -4199,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Huautla</t>
@@ -4212,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Huejutla De Reyes</t>
@@ -4225,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -4238,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -4251,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Jacala De Ledezma</t>
@@ -4264,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -4277,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Metztitlán</t>
@@ -4290,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Mixquiahuala De Juárez</t>
@@ -4303,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Nicolás Flores</t>
@@ -4316,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Nopala De Villagrán</t>
@@ -4329,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -4342,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Pacula</t>
@@ -4355,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Pisaflores</t>
@@ -4368,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Progreso De Obregón</t>
@@ -4381,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>San Agustín Metzquititlán</t>
@@ -4394,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>San Agustín Tlaxiaca</t>
@@ -4407,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>San Felipe Orizatlán</t>
@@ -4420,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>San Salvador</t>
@@ -4433,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Tasquillo</t>
@@ -4446,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Tepeapulco</t>
@@ -4459,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Tepeji Del Río De Ocampo</t>
@@ -4472,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Tezontepec De Aldama</t>
@@ -4485,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Tizayuca</t>
@@ -4498,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Tlahuiltepa</t>
@@ -4511,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Tlaxcoapan</t>
@@ -4524,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Tolcayuca</t>
@@ -4537,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -4550,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -4563,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -4576,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4607,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Ahualulco De Mercado</t>
@@ -4620,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Arandas</t>
@@ -4633,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Atemajac De Brizuela</t>
@@ -4646,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Atenguillo</t>
@@ -4659,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -4672,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Chapala</t>
@@ -4685,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Cihuatlán</t>
@@ -4698,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -4711,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Ejutla</t>
@@ -4724,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -4737,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Jalostotitlán</t>
@@ -4750,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -4763,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Jilotlán De Los Dolores</t>
@@ -4776,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -4789,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -4802,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Mazamitla</t>
@@ -4815,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -4828,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Quitupan</t>
@@ -4841,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>San Gabriel</t>
@@ -4854,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -4867,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>San Martín Hidalgo</t>
@@ -4880,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -4893,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>Santa María Del Oro</t>
@@ -4906,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -4919,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -4932,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -4945,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -4958,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -4971,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -4984,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -4997,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Valle De Guadalupe</t>
@@ -5010,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Valle De Juárez</t>
@@ -5023,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Yahualica De González Gallo</t>
@@ -5036,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Zacoalco De Torres</t>
@@ -5049,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -5062,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Zapotlán Del Rey</t>
@@ -5075,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -5088,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -5101,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5132,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Aguililla</t>
@@ -5145,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -5158,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Angamacutiro</t>
@@ -5171,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Angangueo</t>
@@ -5184,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Apatzingán</t>
@@ -5197,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Buenavista</t>
@@ -5210,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Carácuaro</t>
@@ -5223,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>Cherán</t>
@@ -5236,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Chilchota</t>
@@ -5249,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Chucándiro</t>
@@ -5262,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Coalcomán De Vázquez Pallares</t>
@@ -5275,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -5288,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>Cojumatlán De Régules</t>
@@ -5301,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -5314,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Copándaro</t>
@@ -5327,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Gabriel Zamora</t>
@@ -5340,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -5353,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Huaniqueo</t>
@@ -5366,6 +7166,11 @@
       </c>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -5379,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>Irimbo</t>
@@ -5392,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>Jacona</t>
@@ -5405,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>José Sixto Verduzco</t>
@@ -5418,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -5431,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -5444,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -5457,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -5470,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -5483,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -5496,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -5509,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -5522,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>Nocupétaro</t>
@@ -5535,6 +7400,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -5548,6 +7418,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>Parácuaro</t>
@@ -5561,6 +7436,11 @@
       </c>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B394" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -5574,6 +7454,11 @@
       </c>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B395" t="inlineStr">
         <is>
           <t>Peribán</t>
@@ -5587,6 +7472,11 @@
       </c>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B396" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -5600,6 +7490,11 @@
       </c>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -5613,6 +7508,11 @@
       </c>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B398" t="inlineStr">
         <is>
           <t>Salvador Escalante</t>
@@ -5626,6 +7526,11 @@
       </c>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B399" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -5639,6 +7544,11 @@
       </c>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>Senguio</t>
@@ -5652,6 +7562,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>Susupuato</t>
@@ -5665,6 +7580,11 @@
       </c>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -5678,6 +7598,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>Tangamandapio</t>
@@ -5691,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>Tangancícuaro</t>
@@ -5704,6 +7634,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Tanhuato</t>
@@ -5717,6 +7652,11 @@
       </c>
     </row>
     <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr">
         <is>
           <t>Tarímbaro</t>
@@ -5730,6 +7670,11 @@
       </c>
     </row>
     <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B407" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -5743,6 +7688,11 @@
       </c>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolás Romero</t>
@@ -5756,6 +7706,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>Tlalpujahua</t>
@@ -5769,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Tocumbo</t>
@@ -5782,6 +7742,11 @@
       </c>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>Turicato</t>
@@ -5795,6 +7760,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -5808,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -5821,6 +7796,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>Tzitzio</t>
@@ -5834,6 +7814,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -5847,6 +7832,11 @@
       </c>
     </row>
     <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -5860,6 +7850,11 @@
       </c>
     </row>
     <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B417" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -5873,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -5886,6 +7886,11 @@
       </c>
     </row>
     <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B419" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -5899,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>Ziracuaretiro</t>
@@ -5912,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -5925,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5956,6 +7976,11 @@
       </c>
     </row>
     <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B424" t="inlineStr">
         <is>
           <t>Axochiapan</t>
@@ -5969,6 +7994,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>Ayala</t>
@@ -5982,6 +8012,11 @@
       </c>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -5995,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -6008,6 +8048,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -6021,6 +8066,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>Jiutepec</t>
@@ -6034,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>Jonacatepec De Leandro Valle</t>
@@ -6047,6 +8102,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>Ocuituco</t>
@@ -6060,6 +8120,11 @@
       </c>
     </row>
     <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -6073,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>Tlaltizapán De Zapata</t>
@@ -6086,6 +8156,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>Totolapan</t>
@@ -6099,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -6112,6 +8192,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>Zacatepec</t>
@@ -6125,6 +8210,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>Zacualpan De Amilpas</t>
@@ -6138,6 +8228,11 @@
       </c>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6169,6 +8264,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>Compostela</t>
@@ -6182,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>Santa María Del Oro</t>
@@ -6195,6 +8300,11 @@
       </c>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -6208,6 +8318,11 @@
       </c>
     </row>
     <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B443" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -6221,6 +8336,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -6234,6 +8354,11 @@
       </c>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6265,6 +8390,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>Doctor Arroyo</t>
@@ -6278,6 +8408,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>Galeana</t>
@@ -6291,6 +8426,11 @@
       </c>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -6304,6 +8444,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Linares</t>
@@ -6317,6 +8462,11 @@
       </c>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>Mier Y Noriega</t>
@@ -6330,6 +8480,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -6343,6 +8498,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>Sabinas Hidalgo</t>
@@ -6356,6 +8516,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>San Nicolás De Los Garza</t>
@@ -6369,6 +8534,11 @@
       </c>
     </row>
     <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B455" t="inlineStr">
         <is>
           <t>San Pedro Garza García</t>
@@ -6382,6 +8552,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>Santa Catarina</t>
@@ -6395,6 +8570,11 @@
       </c>
     </row>
     <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6426,6 +8606,11 @@
       </c>
     </row>
     <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
           <t>Acatlán De Pérez Figueroa</t>
@@ -6439,6 +8624,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>Asunción Cacalotepec</t>
@@ -6452,6 +8642,11 @@
       </c>
     </row>
     <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>Asunción Cuyotepeji</t>
@@ -6465,6 +8660,11 @@
       </c>
     </row>
     <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>Asunción Ixtaltepec</t>
@@ -6478,6 +8678,11 @@
       </c>
     </row>
     <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>Asunción Nochixtlán</t>
@@ -6491,6 +8696,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Asunción Ocotlán</t>
@@ -6504,6 +8714,11 @@
       </c>
     </row>
     <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>Ayoquezco De Aldama</t>
@@ -6517,6 +8732,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>Ayotzintepec</t>
@@ -6530,6 +8750,11 @@
       </c>
     </row>
     <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>Candelaria Loxicha</t>
@@ -6543,6 +8768,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>Chalcatongo De Hidalgo</t>
@@ -6556,6 +8786,11 @@
       </c>
     </row>
     <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
           <t>Ciudad Ixtepec</t>
@@ -6569,6 +8804,11 @@
       </c>
     </row>
     <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
           <t>Coatecas Altas</t>
@@ -6582,6 +8822,11 @@
       </c>
     </row>
     <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
           <t>Coicoyán De Las Flores</t>
@@ -6595,6 +8840,11 @@
       </c>
     </row>
     <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>Cosolapa</t>
@@ -6608,6 +8858,11 @@
       </c>
     </row>
     <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
           <t>El Barrio De La Soledad</t>
@@ -6621,6 +8876,11 @@
       </c>
     </row>
     <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Ejutla De Crespo</t>
@@ -6634,6 +8894,11 @@
       </c>
     </row>
     <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De León</t>
@@ -6647,6 +8912,11 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -6660,6 +8930,11 @@
       </c>
     </row>
     <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -6673,6 +8948,11 @@
       </c>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
           <t>Magdalena Teitipac</t>
@@ -6686,6 +8966,11 @@
       </c>
     </row>
     <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -6699,6 +8984,11 @@
       </c>
     </row>
     <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
           <t>Monjas</t>
@@ -6712,6 +9002,11 @@
       </c>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -6725,6 +9020,11 @@
       </c>
     </row>
     <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
           <t>Ocotlán De Morelos</t>
@@ -6738,6 +9038,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>Pinotepa De Don Luis</t>
@@ -6751,6 +9056,11 @@
       </c>
     </row>
     <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
           <t>Putla Villa De Guerero</t>
@@ -6764,6 +9074,11 @@
       </c>
     </row>
     <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -6777,6 +9092,11 @@
       </c>
     </row>
     <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
           <t>San Agustín Loxicha</t>
@@ -6790,6 +9110,11 @@
       </c>
     </row>
     <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B487" t="inlineStr">
         <is>
           <t>San Andrés Huaxpaltepec</t>
@@ -6803,6 +9128,11 @@
       </c>
     </row>
     <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B488" t="inlineStr">
         <is>
           <t>San Antonio Huitepec</t>
@@ -6816,6 +9146,11 @@
       </c>
     </row>
     <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B489" t="inlineStr">
         <is>
           <t>San Bartolomé Loxicha</t>
@@ -6829,6 +9164,11 @@
       </c>
     </row>
     <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B490" t="inlineStr">
         <is>
           <t>San Cristóbal Amatlán</t>
@@ -6842,6 +9182,11 @@
       </c>
     </row>
     <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B491" t="inlineStr">
         <is>
           <t>San Felipe Jalapa De Díaz</t>
@@ -6855,6 +9200,11 @@
       </c>
     </row>
     <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B492" t="inlineStr">
         <is>
           <t>San Francisco Logueche</t>
@@ -6868,6 +9218,11 @@
       </c>
     </row>
     <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B493" t="inlineStr">
         <is>
           <t>San José Del Progreso</t>
@@ -6881,6 +9236,11 @@
       </c>
     </row>
     <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B494" t="inlineStr">
         <is>
           <t>San José Tenango</t>
@@ -6894,6 +9254,11 @@
       </c>
     </row>
     <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B495" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -6907,6 +9272,11 @@
       </c>
     </row>
     <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B496" t="inlineStr">
         <is>
           <t>San Juan Bautista Valle Nacional</t>
@@ -6920,6 +9290,11 @@
       </c>
     </row>
     <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B497" t="inlineStr">
         <is>
           <t>San Juan Colorado</t>
@@ -6933,6 +9308,11 @@
       </c>
     </row>
     <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -6946,6 +9326,11 @@
       </c>
     </row>
     <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B499" t="inlineStr">
         <is>
           <t>San Juan Guichicovi</t>
@@ -6959,6 +9344,11 @@
       </c>
     </row>
     <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
           <t>San Juan Lachao</t>
@@ -6972,6 +9362,11 @@
       </c>
     </row>
     <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
           <t>San Juan Lachigalla</t>
@@ -6985,6 +9380,11 @@
       </c>
     </row>
     <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
           <t>San Juan Lalana</t>
@@ -6998,6 +9398,11 @@
       </c>
     </row>
     <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
           <t>San Juan Mazatlán</t>
@@ -7011,6 +9416,11 @@
       </c>
     </row>
     <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
           <t>San Juan Quiahije</t>
@@ -7024,6 +9434,11 @@
       </c>
     </row>
     <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B505" t="inlineStr">
         <is>
           <t>San Juan Ñumí</t>
@@ -7037,6 +9452,11 @@
       </c>
     </row>
     <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B506" t="inlineStr">
         <is>
           <t>San Lorenzo</t>
@@ -7050,6 +9470,11 @@
       </c>
     </row>
     <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B507" t="inlineStr">
         <is>
           <t>San Lucas Ojitlán</t>
@@ -7063,6 +9488,11 @@
       </c>
     </row>
     <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B508" t="inlineStr">
         <is>
           <t>San Martín Peras</t>
@@ -7076,6 +9506,11 @@
       </c>
     </row>
     <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B509" t="inlineStr">
         <is>
           <t>San Miguel Amatitlán</t>
@@ -7089,6 +9524,11 @@
       </c>
     </row>
     <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
           <t>San Miguel Panixtlahuaca</t>
@@ -7102,6 +9542,11 @@
       </c>
     </row>
     <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
           <t>San Miguel Soyaltepec</t>
@@ -7115,6 +9560,11 @@
       </c>
     </row>
     <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B512" t="inlineStr">
         <is>
           <t>San Pablo Huixtepec</t>
@@ -7128,6 +9578,11 @@
       </c>
     </row>
     <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B513" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -7141,6 +9596,11 @@
       </c>
     </row>
     <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B514" t="inlineStr">
         <is>
           <t>San Sebastián Ixcapa</t>
@@ -7154,6 +9614,11 @@
       </c>
     </row>
     <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B515" t="inlineStr">
         <is>
           <t>San Simón Almolongas</t>
@@ -7167,6 +9632,11 @@
       </c>
     </row>
     <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B516" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -7180,6 +9650,11 @@
       </c>
     </row>
     <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B517" t="inlineStr">
         <is>
           <t>Santa Cruz Itundujia</t>
@@ -7193,6 +9668,11 @@
       </c>
     </row>
     <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B518" t="inlineStr">
         <is>
           <t>Santa Cruz Nundaco</t>
@@ -7206,6 +9686,11 @@
       </c>
     </row>
     <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B519" t="inlineStr">
         <is>
           <t>Santa Cruz Xitla</t>
@@ -7219,6 +9704,11 @@
       </c>
     </row>
     <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B520" t="inlineStr">
         <is>
           <t>Santa Cruz Zenzontepec</t>
@@ -7232,6 +9722,11 @@
       </c>
     </row>
     <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B521" t="inlineStr">
         <is>
           <t>Santa María Colotepec</t>
@@ -7245,6 +9740,11 @@
       </c>
     </row>
     <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B522" t="inlineStr">
         <is>
           <t>Santa María Huatulco</t>
@@ -7258,6 +9758,11 @@
       </c>
     </row>
     <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B523" t="inlineStr">
         <is>
           <t>Santa María Huazolotitlán</t>
@@ -7271,6 +9776,11 @@
       </c>
     </row>
     <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B524" t="inlineStr">
         <is>
           <t>Santa María Jacatepec</t>
@@ -7284,6 +9794,11 @@
       </c>
     </row>
     <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B525" t="inlineStr">
         <is>
           <t>Santa María Temaxcaltepec</t>
@@ -7297,6 +9812,11 @@
       </c>
     </row>
     <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B526" t="inlineStr">
         <is>
           <t>Santa María Tonameca</t>
@@ -7310,6 +9830,11 @@
       </c>
     </row>
     <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B527" t="inlineStr">
         <is>
           <t>Santa María Yolotepec</t>
@@ -7323,6 +9848,11 @@
       </c>
     </row>
     <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B528" t="inlineStr">
         <is>
           <t>Santiago Amoltepec</t>
@@ -7336,6 +9866,11 @@
       </c>
     </row>
     <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B529" t="inlineStr">
         <is>
           <t>Santiago Chazumba</t>
@@ -7349,6 +9884,11 @@
       </c>
     </row>
     <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B530" t="inlineStr">
         <is>
           <t>Santiago Ixtayutla</t>
@@ -7362,6 +9902,11 @@
       </c>
     </row>
     <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B531" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -7375,6 +9920,11 @@
       </c>
     </row>
     <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B532" t="inlineStr">
         <is>
           <t>Santiago Jocotepec</t>
@@ -7388,6 +9938,11 @@
       </c>
     </row>
     <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B533" t="inlineStr">
         <is>
           <t>Santiago Tetepec</t>
@@ -7401,6 +9956,11 @@
       </c>
     </row>
     <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B534" t="inlineStr">
         <is>
           <t>Santiago Textitlán</t>
@@ -7414,6 +9974,11 @@
       </c>
     </row>
     <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B535" t="inlineStr">
         <is>
           <t>Santiago Tilantongo</t>
@@ -7427,6 +9992,11 @@
       </c>
     </row>
     <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B536" t="inlineStr">
         <is>
           <t>Santiago Yaitepec</t>
@@ -7440,6 +10010,11 @@
       </c>
     </row>
     <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B537" t="inlineStr">
         <is>
           <t>Santiago Yosondúa</t>
@@ -7453,6 +10028,11 @@
       </c>
     </row>
     <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B538" t="inlineStr">
         <is>
           <t>Santo Domingo Armenta</t>
@@ -7466,6 +10046,11 @@
       </c>
     </row>
     <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B539" t="inlineStr">
         <is>
           <t>Santo Domingo De Morelos</t>
@@ -7479,6 +10064,11 @@
       </c>
     </row>
     <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B540" t="inlineStr">
         <is>
           <t>Santo Domingo Tehuantepec</t>
@@ -7492,6 +10082,11 @@
       </c>
     </row>
     <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B541" t="inlineStr">
         <is>
           <t>Santo Domingo Tomaltepec</t>
@@ -7505,6 +10100,11 @@
       </c>
     </row>
     <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B542" t="inlineStr">
         <is>
           <t>Santo Tomás Ocotepec</t>
@@ -7518,6 +10118,11 @@
       </c>
     </row>
     <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B543" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -7531,6 +10136,11 @@
       </c>
     </row>
     <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr">
         <is>
           <t>Tataltepec De Valdés</t>
@@ -7544,6 +10154,11 @@
       </c>
     </row>
     <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B545" t="inlineStr">
         <is>
           <t>Tepelmeme Villa De Morelos</t>
@@ -7557,6 +10172,11 @@
       </c>
     </row>
     <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B546" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -7570,6 +10190,11 @@
       </c>
     </row>
     <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B547" t="inlineStr">
         <is>
           <t>Zimatlán De Álvarez</t>
@@ -7583,6 +10208,11 @@
       </c>
     </row>
     <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B548" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7614,6 +10244,11 @@
       </c>
     </row>
     <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B550" t="inlineStr">
         <is>
           <t>Ahuazotepec</t>
@@ -7627,6 +10262,11 @@
       </c>
     </row>
     <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B551" t="inlineStr">
         <is>
           <t>Ajalpan</t>
@@ -7640,6 +10280,11 @@
       </c>
     </row>
     <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B552" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -7653,6 +10298,11 @@
       </c>
     </row>
     <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B553" t="inlineStr">
         <is>
           <t>Cañada Morelos</t>
@@ -7666,6 +10316,11 @@
       </c>
     </row>
     <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B554" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -7679,6 +10334,11 @@
       </c>
     </row>
     <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B555" t="inlineStr">
         <is>
           <t>Chila</t>
@@ -7692,6 +10352,11 @@
       </c>
     </row>
     <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B556" t="inlineStr">
         <is>
           <t>Chilchotla</t>
@@ -7705,6 +10370,11 @@
       </c>
     </row>
     <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B557" t="inlineStr">
         <is>
           <t>Coronango</t>
@@ -7718,6 +10388,11 @@
       </c>
     </row>
     <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B558" t="inlineStr">
         <is>
           <t>Cuetzalan Del Progreso</t>
@@ -7731,6 +10406,11 @@
       </c>
     </row>
     <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B559" t="inlineStr">
         <is>
           <t>Epatlán</t>
@@ -7744,6 +10424,11 @@
       </c>
     </row>
     <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B560" t="inlineStr">
         <is>
           <t>Huehuetlán El Grande</t>
@@ -7757,6 +10442,11 @@
       </c>
     </row>
     <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B561" t="inlineStr">
         <is>
           <t>Palmar De Bravo</t>
@@ -7770,6 +10460,11 @@
       </c>
     </row>
     <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B562" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -7783,6 +10478,11 @@
       </c>
     </row>
     <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B563" t="inlineStr">
         <is>
           <t>Quecholac</t>
@@ -7796,6 +10496,11 @@
       </c>
     </row>
     <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B564" t="inlineStr">
         <is>
           <t>Quimixtlán</t>
@@ -7809,6 +10514,11 @@
       </c>
     </row>
     <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B565" t="inlineStr">
         <is>
           <t>San Felipe Tepatlán</t>
@@ -7822,6 +10532,11 @@
       </c>
     </row>
     <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B566" t="inlineStr">
         <is>
           <t>San Matías Tlalancaleca</t>
@@ -7835,6 +10550,11 @@
       </c>
     </row>
     <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B567" t="inlineStr">
         <is>
           <t>San Nicolás De Los Ranchos</t>
@@ -7848,6 +10568,11 @@
       </c>
     </row>
     <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B568" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -7861,6 +10586,11 @@
       </c>
     </row>
     <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B569" t="inlineStr">
         <is>
           <t>Tecamachalco</t>
@@ -7874,6 +10604,11 @@
       </c>
     </row>
     <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B570" t="inlineStr">
         <is>
           <t>Tecomatlán</t>
@@ -7887,6 +10622,11 @@
       </c>
     </row>
     <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B571" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -7900,6 +10640,11 @@
       </c>
     </row>
     <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B572" t="inlineStr">
         <is>
           <t>Tepatlaxco De Hidalgo</t>
@@ -7913,6 +10658,11 @@
       </c>
     </row>
     <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B573" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -7926,6 +10676,11 @@
       </c>
     </row>
     <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B574" t="inlineStr">
         <is>
           <t>Tepetzintla</t>
@@ -7939,6 +10694,11 @@
       </c>
     </row>
     <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B575" t="inlineStr">
         <is>
           <t>Tetela De Ocampo</t>
@@ -7952,6 +10712,11 @@
       </c>
     </row>
     <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B576" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -7965,6 +10730,11 @@
       </c>
     </row>
     <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B577" t="inlineStr">
         <is>
           <t>Tlachichuca</t>
@@ -7978,6 +10748,11 @@
       </c>
     </row>
     <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B578" t="inlineStr">
         <is>
           <t>Tlacuilotepec</t>
@@ -7991,6 +10766,11 @@
       </c>
     </row>
     <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B579" t="inlineStr">
         <is>
           <t>Tlaola</t>
@@ -8004,6 +10784,11 @@
       </c>
     </row>
     <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B580" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -8017,6 +10802,11 @@
       </c>
     </row>
     <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B581" t="inlineStr">
         <is>
           <t>Tulcingo</t>
@@ -8030,6 +10820,11 @@
       </c>
     </row>
     <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B582" t="inlineStr">
         <is>
           <t>Vicente Guerero</t>
@@ -8043,6 +10838,11 @@
       </c>
     </row>
     <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B583" t="inlineStr">
         <is>
           <t>Xochiltepec</t>
@@ -8056,6 +10856,11 @@
       </c>
     </row>
     <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B584" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -8069,6 +10874,11 @@
       </c>
     </row>
     <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B585" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -8082,6 +10892,11 @@
       </c>
     </row>
     <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B586" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -8095,6 +10910,11 @@
       </c>
     </row>
     <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B587" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8126,6 +10946,11 @@
       </c>
     </row>
     <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B589" t="inlineStr">
         <is>
           <t>Cadereyta De Montes</t>
@@ -8139,6 +10964,11 @@
       </c>
     </row>
     <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B590" t="inlineStr">
         <is>
           <t>Corregidora</t>
@@ -8152,6 +10982,11 @@
       </c>
     </row>
     <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B591" t="inlineStr">
         <is>
           <t>El Marqués</t>
@@ -8165,6 +11000,11 @@
       </c>
     </row>
     <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B592" t="inlineStr">
         <is>
           <t>Huimilpan</t>
@@ -8178,6 +11018,11 @@
       </c>
     </row>
     <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B593" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -8191,6 +11036,11 @@
       </c>
     </row>
     <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B594" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -8204,6 +11054,11 @@
       </c>
     </row>
     <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B595" t="inlineStr">
         <is>
           <t>Pedro Escobedo</t>
@@ -8217,6 +11072,11 @@
       </c>
     </row>
     <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B596" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -8230,6 +11090,11 @@
       </c>
     </row>
     <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B597" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -8243,6 +11108,11 @@
       </c>
     </row>
     <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B598" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -8256,6 +11126,11 @@
       </c>
     </row>
     <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B599" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8287,6 +11162,11 @@
       </c>
     </row>
     <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B601" t="inlineStr">
         <is>
           <t>Cozumel</t>
@@ -8300,6 +11180,11 @@
       </c>
     </row>
     <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B602" t="inlineStr">
         <is>
           <t>Isla Mujeres</t>
@@ -8313,6 +11198,11 @@
       </c>
     </row>
     <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B603" t="inlineStr">
         <is>
           <t>Othón P. Blanco</t>
@@ -8326,6 +11216,11 @@
       </c>
     </row>
     <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B604" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8357,6 +11252,11 @@
       </c>
     </row>
     <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B606" t="inlineStr">
         <is>
           <t>Aquismón</t>
@@ -8370,6 +11270,11 @@
       </c>
     </row>
     <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B607" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -8383,6 +11288,11 @@
       </c>
     </row>
     <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B608" t="inlineStr">
         <is>
           <t>Charcas</t>
@@ -8396,6 +11306,11 @@
       </c>
     </row>
     <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B609" t="inlineStr">
         <is>
           <t>Ciudad Del Maíz</t>
@@ -8409,6 +11324,11 @@
       </c>
     </row>
     <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B610" t="inlineStr">
         <is>
           <t>Ciudad Fernández</t>
@@ -8422,6 +11342,11 @@
       </c>
     </row>
     <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B611" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -8435,6 +11360,11 @@
       </c>
     </row>
     <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B612" t="inlineStr">
         <is>
           <t>Ebano</t>
@@ -8448,6 +11378,11 @@
       </c>
     </row>
     <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B613" t="inlineStr">
         <is>
           <t>Guadalcázar</t>
@@ -8461,6 +11396,11 @@
       </c>
     </row>
     <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B614" t="inlineStr">
         <is>
           <t>Lagunillas</t>
@@ -8474,6 +11414,11 @@
       </c>
     </row>
     <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B615" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -8487,6 +11432,11 @@
       </c>
     </row>
     <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B616" t="inlineStr">
         <is>
           <t>Matlapa</t>
@@ -8500,6 +11450,11 @@
       </c>
     </row>
     <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B617" t="inlineStr">
         <is>
           <t>Moctezuma</t>
@@ -8513,6 +11468,11 @@
       </c>
     </row>
     <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B618" t="inlineStr">
         <is>
           <t>Rayón</t>
@@ -8526,6 +11486,11 @@
       </c>
     </row>
     <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B619" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -8539,6 +11504,11 @@
       </c>
     </row>
     <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B620" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -8552,6 +11522,11 @@
       </c>
     </row>
     <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B621" t="inlineStr">
         <is>
           <t>San Ciro De Acosta</t>
@@ -8565,6 +11540,11 @@
       </c>
     </row>
     <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B622" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -8578,6 +11558,11 @@
       </c>
     </row>
     <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B623" t="inlineStr">
         <is>
           <t>San Martín Chalchicuautla</t>
@@ -8591,6 +11576,11 @@
       </c>
     </row>
     <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B624" t="inlineStr">
         <is>
           <t>San Nicolás Tolentino</t>
@@ -8604,6 +11594,11 @@
       </c>
     </row>
     <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B625" t="inlineStr">
         <is>
           <t>Santa Catarina</t>
@@ -8617,6 +11612,11 @@
       </c>
     </row>
     <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B626" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -8630,6 +11630,11 @@
       </c>
     </row>
     <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B627" t="inlineStr">
         <is>
           <t>Soledad De Graciano Sánchez</t>
@@ -8643,6 +11648,11 @@
       </c>
     </row>
     <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B628" t="inlineStr">
         <is>
           <t>Tamasopo</t>
@@ -8656,6 +11666,11 @@
       </c>
     </row>
     <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B629" t="inlineStr">
         <is>
           <t>Tamazunchale</t>
@@ -8669,6 +11684,11 @@
       </c>
     </row>
     <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B630" t="inlineStr">
         <is>
           <t>Tamuín</t>
@@ -8682,6 +11702,11 @@
       </c>
     </row>
     <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B631" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -8695,6 +11720,11 @@
       </c>
     </row>
     <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B632" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -8708,6 +11738,11 @@
       </c>
     </row>
     <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B633" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -8721,6 +11756,11 @@
       </c>
     </row>
     <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B634" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8752,6 +11792,11 @@
       </c>
     </row>
     <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B636" t="inlineStr">
         <is>
           <t>Choix</t>
@@ -8765,6 +11810,11 @@
       </c>
     </row>
     <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B637" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -8778,6 +11828,11 @@
       </c>
     </row>
     <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B638" t="inlineStr">
         <is>
           <t>El Fuerte</t>
@@ -8791,6 +11846,11 @@
       </c>
     </row>
     <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B639" t="inlineStr">
         <is>
           <t>Elota</t>
@@ -8804,6 +11864,11 @@
       </c>
     </row>
     <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B640" t="inlineStr">
         <is>
           <t>Escuinapa</t>
@@ -8817,6 +11882,11 @@
       </c>
     </row>
     <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B641" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -8830,6 +11900,11 @@
       </c>
     </row>
     <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B642" t="inlineStr">
         <is>
           <t>Mazatlán</t>
@@ -8843,6 +11918,11 @@
       </c>
     </row>
     <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B643" t="inlineStr">
         <is>
           <t>Rosario</t>
@@ -8856,6 +11936,11 @@
       </c>
     </row>
     <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B644" t="inlineStr">
         <is>
           <t>Salvador Alvarado</t>
@@ -8869,6 +11954,11 @@
       </c>
     </row>
     <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B645" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8900,6 +11990,11 @@
       </c>
     </row>
     <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B647" t="inlineStr">
         <is>
           <t>Cajeme</t>
@@ -8913,6 +12008,11 @@
       </c>
     </row>
     <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B648" t="inlineStr">
         <is>
           <t>Etchojoa</t>
@@ -8926,6 +12026,11 @@
       </c>
     </row>
     <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B649" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -8939,6 +12044,11 @@
       </c>
     </row>
     <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B650" t="inlineStr">
         <is>
           <t>Navojoa</t>
@@ -8952,6 +12062,11 @@
       </c>
     </row>
     <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B651" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -8965,6 +12080,11 @@
       </c>
     </row>
     <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B652" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8996,6 +12116,11 @@
       </c>
     </row>
     <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B654" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -9009,6 +12134,11 @@
       </c>
     </row>
     <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B655" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -9022,6 +12152,11 @@
       </c>
     </row>
     <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B656" t="inlineStr">
         <is>
           <t>Cunduacán</t>
@@ -9035,6 +12170,11 @@
       </c>
     </row>
     <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B657" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -9048,6 +12188,11 @@
       </c>
     </row>
     <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B658" t="inlineStr">
         <is>
           <t>Jalapa</t>
@@ -9061,6 +12206,11 @@
       </c>
     </row>
     <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B659" t="inlineStr">
         <is>
           <t>Macuspana</t>
@@ -9074,6 +12224,11 @@
       </c>
     </row>
     <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B660" t="inlineStr">
         <is>
           <t>Tacotalpa</t>
@@ -9087,6 +12242,11 @@
       </c>
     </row>
     <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B661" t="inlineStr">
         <is>
           <t>Tenosique</t>
@@ -9100,6 +12260,11 @@
       </c>
     </row>
     <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B662" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9131,6 +12296,11 @@
       </c>
     </row>
     <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B664" t="inlineStr">
         <is>
           <t>Aldama</t>
@@ -9144,6 +12314,11 @@
       </c>
     </row>
     <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B665" t="inlineStr">
         <is>
           <t>Altamira</t>
@@ -9157,6 +12332,11 @@
       </c>
     </row>
     <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B666" t="inlineStr">
         <is>
           <t>Antiguo Morelos</t>
@@ -9170,6 +12350,11 @@
       </c>
     </row>
     <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B667" t="inlineStr">
         <is>
           <t>Bustamante</t>
@@ -9183,6 +12368,11 @@
       </c>
     </row>
     <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B668" t="inlineStr">
         <is>
           <t>Ciudad Madero</t>
@@ -9196,6 +12386,11 @@
       </c>
     </row>
     <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B669" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -9209,6 +12404,11 @@
       </c>
     </row>
     <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B670" t="inlineStr">
         <is>
           <t>González</t>
@@ -9222,6 +12422,11 @@
       </c>
     </row>
     <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B671" t="inlineStr">
         <is>
           <t>Güémez</t>
@@ -9235,6 +12440,11 @@
       </c>
     </row>
     <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B672" t="inlineStr">
         <is>
           <t>Jaumave</t>
@@ -9248,6 +12458,11 @@
       </c>
     </row>
     <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B673" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -9261,6 +12476,11 @@
       </c>
     </row>
     <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B674" t="inlineStr">
         <is>
           <t>Llera</t>
@@ -9274,6 +12494,11 @@
       </c>
     </row>
     <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B675" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -9287,6 +12512,11 @@
       </c>
     </row>
     <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B676" t="inlineStr">
         <is>
           <t>Miguel Alemán</t>
@@ -9300,6 +12530,11 @@
       </c>
     </row>
     <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B677" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -9313,6 +12548,11 @@
       </c>
     </row>
     <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B678" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -9326,6 +12566,11 @@
       </c>
     </row>
     <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B679" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -9339,6 +12584,11 @@
       </c>
     </row>
     <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B680" t="inlineStr">
         <is>
           <t>Río Bravo</t>
@@ -9352,6 +12602,11 @@
       </c>
     </row>
     <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B681" t="inlineStr">
         <is>
           <t>San Fernando</t>
@@ -9365,6 +12620,11 @@
       </c>
     </row>
     <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B682" t="inlineStr">
         <is>
           <t>Soto La Marina</t>
@@ -9378,6 +12638,11 @@
       </c>
     </row>
     <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B683" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -9391,6 +12656,11 @@
       </c>
     </row>
     <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B684" t="inlineStr">
         <is>
           <t>Tula</t>
@@ -9404,6 +12674,11 @@
       </c>
     </row>
     <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B685" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -9417,6 +12692,11 @@
       </c>
     </row>
     <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B686" t="inlineStr">
         <is>
           <t>Villagrán</t>
@@ -9430,6 +12710,11 @@
       </c>
     </row>
     <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B687" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9461,6 +12746,11 @@
       </c>
     </row>
     <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B689" t="inlineStr">
         <is>
           <t>Calpulalpan</t>
@@ -9474,6 +12764,11 @@
       </c>
     </row>
     <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B690" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -9487,6 +12782,11 @@
       </c>
     </row>
     <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B691" t="inlineStr">
         <is>
           <t>Nanacamilpa De Mariano Arista</t>
@@ -9500,6 +12800,11 @@
       </c>
     </row>
     <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B692" t="inlineStr">
         <is>
           <t>San Pablo Del Monte</t>
@@ -9513,6 +12818,11 @@
       </c>
     </row>
     <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B693" t="inlineStr">
         <is>
           <t>Tetla De La Solidaridad</t>
@@ -9526,6 +12836,11 @@
       </c>
     </row>
     <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B694" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -9539,6 +12854,11 @@
       </c>
     </row>
     <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B695" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9570,6 +12890,11 @@
       </c>
     </row>
     <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B697" t="inlineStr">
         <is>
           <t>Acayucan</t>
@@ -9583,6 +12908,11 @@
       </c>
     </row>
     <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B698" t="inlineStr">
         <is>
           <t>Alto Lucero De Gutiérrez Barrios</t>
@@ -9596,6 +12926,11 @@
       </c>
     </row>
     <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B699" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -9609,6 +12944,11 @@
       </c>
     </row>
     <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B700" t="inlineStr">
         <is>
           <t>Alvarado</t>
@@ -9622,6 +12962,11 @@
       </c>
     </row>
     <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B701" t="inlineStr">
         <is>
           <t>Amatlán De Los Reyes</t>
@@ -9635,6 +12980,11 @@
       </c>
     </row>
     <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B702" t="inlineStr">
         <is>
           <t>Angel R. Cabada</t>
@@ -9648,6 +12998,11 @@
       </c>
     </row>
     <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B703" t="inlineStr">
         <is>
           <t>Apazapan</t>
@@ -9661,6 +13016,11 @@
       </c>
     </row>
     <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B704" t="inlineStr">
         <is>
           <t>Astacinga</t>
@@ -9674,6 +13034,11 @@
       </c>
     </row>
     <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B705" t="inlineStr">
         <is>
           <t>Atoyac</t>
@@ -9687,6 +13052,11 @@
       </c>
     </row>
     <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B706" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -9700,6 +13070,11 @@
       </c>
     </row>
     <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B707" t="inlineStr">
         <is>
           <t>Calcahualco</t>
@@ -9713,6 +13088,11 @@
       </c>
     </row>
     <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B708" t="inlineStr">
         <is>
           <t>Camerino Z. Mendoza</t>
@@ -9726,6 +13106,11 @@
       </c>
     </row>
     <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B709" t="inlineStr">
         <is>
           <t>Carrillo Puerto</t>
@@ -9739,6 +13124,11 @@
       </c>
     </row>
     <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B710" t="inlineStr">
         <is>
           <t>Castillo De Teayo</t>
@@ -9752,6 +13142,11 @@
       </c>
     </row>
     <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B711" t="inlineStr">
         <is>
           <t>Catemaco</t>
@@ -9765,6 +13160,11 @@
       </c>
     </row>
     <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B712" t="inlineStr">
         <is>
           <t>Cazones De Herrera</t>
@@ -9778,6 +13178,11 @@
       </c>
     </row>
     <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B713" t="inlineStr">
         <is>
           <t>Chiconquiaco</t>
@@ -9791,6 +13196,11 @@
       </c>
     </row>
     <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B714" t="inlineStr">
         <is>
           <t>Chicontepec</t>
@@ -9804,6 +13214,11 @@
       </c>
     </row>
     <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B715" t="inlineStr">
         <is>
           <t>Chinameca</t>
@@ -9817,6 +13232,11 @@
       </c>
     </row>
     <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B716" t="inlineStr">
         <is>
           <t>Chumatlán</t>
@@ -9830,6 +13250,11 @@
       </c>
     </row>
     <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B717" t="inlineStr">
         <is>
           <t>Citlaltépetl</t>
@@ -9843,6 +13268,11 @@
       </c>
     </row>
     <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B718" t="inlineStr">
         <is>
           <t>Coahuitlán</t>
@@ -9856,6 +13286,11 @@
       </c>
     </row>
     <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B719" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -9869,6 +13304,11 @@
       </c>
     </row>
     <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B720" t="inlineStr">
         <is>
           <t>Coatzintla</t>
@@ -9882,6 +13322,11 @@
       </c>
     </row>
     <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B721" t="inlineStr">
         <is>
           <t>Comapa</t>
@@ -9895,6 +13340,11 @@
       </c>
     </row>
     <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B722" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -9908,6 +13358,11 @@
       </c>
     </row>
     <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B723" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -9921,6 +13376,11 @@
       </c>
     </row>
     <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B724" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -9934,6 +13394,11 @@
       </c>
     </row>
     <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B725" t="inlineStr">
         <is>
           <t>Cosoleacaque</t>
@@ -9947,6 +13412,11 @@
       </c>
     </row>
     <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B726" t="inlineStr">
         <is>
           <t>Cotaxtla</t>
@@ -9960,6 +13430,11 @@
       </c>
     </row>
     <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B727" t="inlineStr">
         <is>
           <t>Cuichapa</t>
@@ -9973,6 +13448,11 @@
       </c>
     </row>
     <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B728" t="inlineStr">
         <is>
           <t>Cuitláhuac</t>
@@ -9986,6 +13466,11 @@
       </c>
     </row>
     <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B729" t="inlineStr">
         <is>
           <t>Fortín</t>
@@ -9999,6 +13484,11 @@
       </c>
     </row>
     <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B730" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -10012,6 +13502,11 @@
       </c>
     </row>
     <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B731" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -10025,6 +13520,11 @@
       </c>
     </row>
     <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B732" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -10038,6 +13538,11 @@
       </c>
     </row>
     <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B733" t="inlineStr">
         <is>
           <t>Ilamatlán</t>
@@ -10051,6 +13556,11 @@
       </c>
     </row>
     <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B734" t="inlineStr">
         <is>
           <t>Ixhuatlán Del Café</t>
@@ -10064,6 +13574,11 @@
       </c>
     </row>
     <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B735" t="inlineStr">
         <is>
           <t>Ixmatlahuacan</t>
@@ -10077,6 +13592,11 @@
       </c>
     </row>
     <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B736" t="inlineStr">
         <is>
           <t>Ixtaczoquitlán</t>
@@ -10090,6 +13610,11 @@
       </c>
     </row>
     <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B737" t="inlineStr">
         <is>
           <t>Jalacingo</t>
@@ -10103,6 +13628,11 @@
       </c>
     </row>
     <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B738" t="inlineStr">
         <is>
           <t>Jáltipan</t>
@@ -10116,6 +13646,11 @@
       </c>
     </row>
     <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B739" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -10129,6 +13664,11 @@
       </c>
     </row>
     <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B740" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -10142,6 +13682,11 @@
       </c>
     </row>
     <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B741" t="inlineStr">
         <is>
           <t>Juan Rodríguez Clara</t>
@@ -10155,6 +13700,11 @@
       </c>
     </row>
     <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B742" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -10168,6 +13718,11 @@
       </c>
     </row>
     <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B743" t="inlineStr">
         <is>
           <t>La Perla</t>
@@ -10181,6 +13736,11 @@
       </c>
     </row>
     <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B744" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -10194,6 +13754,11 @@
       </c>
     </row>
     <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B745" t="inlineStr">
         <is>
           <t>Las Minas</t>
@@ -10207,6 +13772,11 @@
       </c>
     </row>
     <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B746" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -10220,6 +13790,11 @@
       </c>
     </row>
     <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B747" t="inlineStr">
         <is>
           <t>Manlio Fabio Altamirano</t>
@@ -10233,6 +13808,11 @@
       </c>
     </row>
     <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B748" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -10246,6 +13826,11 @@
       </c>
     </row>
     <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B749" t="inlineStr">
         <is>
           <t>Medellín De Bravo</t>
@@ -10259,6 +13844,11 @@
       </c>
     </row>
     <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B750" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -10272,6 +13862,11 @@
       </c>
     </row>
     <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B751" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -10285,6 +13880,11 @@
       </c>
     </row>
     <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B752" t="inlineStr">
         <is>
           <t>Mixtla De Altamirano</t>
@@ -10298,6 +13898,11 @@
       </c>
     </row>
     <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B753" t="inlineStr">
         <is>
           <t>Naranjos Amatlán</t>
@@ -10311,6 +13916,11 @@
       </c>
     </row>
     <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B754" t="inlineStr">
         <is>
           <t>Oluta</t>
@@ -10324,6 +13934,11 @@
       </c>
     </row>
     <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B755" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -10337,6 +13952,11 @@
       </c>
     </row>
     <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B756" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -10350,6 +13970,11 @@
       </c>
     </row>
     <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B757" t="inlineStr">
         <is>
           <t>Oteapan</t>
@@ -10363,6 +13988,11 @@
       </c>
     </row>
     <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B758" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -10376,6 +14006,11 @@
       </c>
     </row>
     <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B759" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -10389,6 +14024,11 @@
       </c>
     </row>
     <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B760" t="inlineStr">
         <is>
           <t>Paso De Ovejas</t>
@@ -10402,6 +14042,11 @@
       </c>
     </row>
     <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B761" t="inlineStr">
         <is>
           <t>Paso Del Macho</t>
@@ -10415,6 +14060,11 @@
       </c>
     </row>
     <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B762" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -10428,6 +14078,11 @@
       </c>
     </row>
     <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B763" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -10441,6 +14096,11 @@
       </c>
     </row>
     <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B764" t="inlineStr">
         <is>
           <t>Río Blanco</t>
@@ -10454,6 +14114,11 @@
       </c>
     </row>
     <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B765" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -10467,6 +14132,11 @@
       </c>
     </row>
     <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B766" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -10480,6 +14150,11 @@
       </c>
     </row>
     <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B767" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -10493,6 +14168,11 @@
       </c>
     </row>
     <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B768" t="inlineStr">
         <is>
           <t>Sayula De Alemán</t>
@@ -10506,6 +14186,11 @@
       </c>
     </row>
     <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B769" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -10519,6 +14204,11 @@
       </c>
     </row>
     <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B770" t="inlineStr">
         <is>
           <t>Soteapan</t>
@@ -10532,6 +14222,11 @@
       </c>
     </row>
     <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B771" t="inlineStr">
         <is>
           <t>Tamiahua</t>
@@ -10545,6 +14240,11 @@
       </c>
     </row>
     <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B772" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -10558,6 +14258,11 @@
       </c>
     </row>
     <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B773" t="inlineStr">
         <is>
           <t>Tecolutla</t>
@@ -10571,6 +14276,11 @@
       </c>
     </row>
     <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B774" t="inlineStr">
         <is>
           <t>Álamo Temapache</t>
@@ -10584,6 +14294,11 @@
       </c>
     </row>
     <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B775" t="inlineStr">
         <is>
           <t>Tempoal</t>
@@ -10597,6 +14312,11 @@
       </c>
     </row>
     <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B776" t="inlineStr">
         <is>
           <t>Tenochtitlán</t>
@@ -10610,6 +14330,11 @@
       </c>
     </row>
     <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B777" t="inlineStr">
         <is>
           <t>Teocelo</t>
@@ -10623,6 +14348,11 @@
       </c>
     </row>
     <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B778" t="inlineStr">
         <is>
           <t>Texhuacán</t>
@@ -10636,6 +14366,11 @@
       </c>
     </row>
     <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B779" t="inlineStr">
         <is>
           <t>Texistepec</t>
@@ -10649,6 +14384,11 @@
       </c>
     </row>
     <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B780" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -10662,6 +14402,11 @@
       </c>
     </row>
     <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B781" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -10675,6 +14420,11 @@
       </c>
     </row>
     <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B782" t="inlineStr">
         <is>
           <t>Tihuatlán</t>
@@ -10688,6 +14438,11 @@
       </c>
     </row>
     <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B783" t="inlineStr">
         <is>
           <t>Tlacolulan</t>
@@ -10701,6 +14456,11 @@
       </c>
     </row>
     <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B784" t="inlineStr">
         <is>
           <t>Tlacotalpan</t>
@@ -10714,6 +14474,11 @@
       </c>
     </row>
     <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B785" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -10727,6 +14492,11 @@
       </c>
     </row>
     <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B786" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -10740,6 +14510,11 @@
       </c>
     </row>
     <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B787" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -10753,6 +14528,11 @@
       </c>
     </row>
     <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B788" t="inlineStr">
         <is>
           <t>Tonayán</t>
@@ -10766,6 +14546,11 @@
       </c>
     </row>
     <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B789" t="inlineStr">
         <is>
           <t>Totutla</t>
@@ -10779,6 +14564,11 @@
       </c>
     </row>
     <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B790" t="inlineStr">
         <is>
           <t>Tres Valles</t>
@@ -10792,6 +14582,11 @@
       </c>
     </row>
     <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B791" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -10805,6 +14600,11 @@
       </c>
     </row>
     <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B792" t="inlineStr">
         <is>
           <t>Ursulo Galván</t>
@@ -10818,6 +14618,11 @@
       </c>
     </row>
     <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B793" t="inlineStr">
         <is>
           <t>Vega De Alatorre</t>
@@ -10831,6 +14636,11 @@
       </c>
     </row>
     <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B794" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -10844,6 +14654,11 @@
       </c>
     </row>
     <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B795" t="inlineStr">
         <is>
           <t>Villa Aldama</t>
@@ -10857,6 +14672,11 @@
       </c>
     </row>
     <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B796" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -10870,6 +14690,11 @@
       </c>
     </row>
     <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B797" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -10883,6 +14708,11 @@
       </c>
     </row>
     <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B798" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -10896,6 +14726,11 @@
       </c>
     </row>
     <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B799" t="inlineStr">
         <is>
           <t>Total</t>
@@ -10927,6 +14762,11 @@
       </c>
     </row>
     <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B801" t="inlineStr">
         <is>
           <t>Tekax</t>
@@ -10940,6 +14780,11 @@
       </c>
     </row>
     <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B802" t="inlineStr">
         <is>
           <t>Valladolid</t>
@@ -10953,6 +14798,11 @@
       </c>
     </row>
     <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B803" t="inlineStr">
         <is>
           <t>Total</t>
@@ -10984,6 +14834,11 @@
       </c>
     </row>
     <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B805" t="inlineStr">
         <is>
           <t>Chalchihuites</t>
@@ -10997,6 +14852,11 @@
       </c>
     </row>
     <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B806" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -11010,6 +14870,11 @@
       </c>
     </row>
     <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B807" t="inlineStr">
         <is>
           <t>El Plateado De Joaquín Amaro</t>
@@ -11023,6 +14888,11 @@
       </c>
     </row>
     <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B808" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -11036,6 +14906,11 @@
       </c>
     </row>
     <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B809" t="inlineStr">
         <is>
           <t>Genaro Codina</t>
@@ -11049,6 +14924,11 @@
       </c>
     </row>
     <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B810" t="inlineStr">
         <is>
           <t>General Pánfilo Natera</t>
@@ -11062,6 +14942,11 @@
       </c>
     </row>
     <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B811" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -11075,6 +14960,11 @@
       </c>
     </row>
     <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B812" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -11088,6 +14978,11 @@
       </c>
     </row>
     <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B813" t="inlineStr">
         <is>
           <t>Juan Aldama</t>
@@ -11101,6 +14996,11 @@
       </c>
     </row>
     <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B814" t="inlineStr">
         <is>
           <t>Luis Moya</t>
@@ -11114,6 +15014,11 @@
       </c>
     </row>
     <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B815" t="inlineStr">
         <is>
           <t>Miguel Auza</t>
@@ -11127,6 +15032,11 @@
       </c>
     </row>
     <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B816" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -11140,6 +15050,11 @@
       </c>
     </row>
     <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B817" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -11153,6 +15068,11 @@
       </c>
     </row>
     <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B818" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -11166,6 +15086,11 @@
       </c>
     </row>
     <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B819" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -11179,6 +15104,11 @@
       </c>
     </row>
     <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B820" t="inlineStr">
         <is>
           <t>Tepechitlán</t>
@@ -11192,6 +15122,11 @@
       </c>
     </row>
     <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B821" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -11205,6 +15140,11 @@
       </c>
     </row>
     <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B822" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -11218,6 +15158,11 @@
       </c>
     </row>
     <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B823" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -11231,6 +15176,11 @@
       </c>
     </row>
     <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B824" t="inlineStr">
         <is>
           <t>Total</t>
